--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,9 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Hello my Friend!</t>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>ШК</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Кол-во</t>
+  </si>
+  <si>
+    <t>Сумма</t>
   </si>
 </sst>
 </file>
@@ -25,9 +37,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
@@ -53,8 +74,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -356,17 +380,37 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>47323424</v>
+      </c>
+      <c r="B2">
+        <v>47323424</v>
       </c>
     </row>
   </sheetData>

--- a/hello.xlsx
+++ b/hello.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +30,42 @@
   </si>
   <si>
     <t>Сумма</t>
+  </si>
+  <si>
+    <t>0000006274</t>
+  </si>
+  <si>
+    <t>Крем-борщ вегетарианский</t>
+  </si>
+  <si>
+    <t>0000006273</t>
+  </si>
+  <si>
+    <t>Окрошка на квасе</t>
+  </si>
+  <si>
+    <t>0000006255</t>
+  </si>
+  <si>
+    <t>Оливье с курой</t>
+  </si>
+  <si>
+    <t>0000002843</t>
+  </si>
+  <si>
+    <t>Рис с курицей в кисло-сладком соусе</t>
+  </si>
+  <si>
+    <t>0000006260</t>
+  </si>
+  <si>
+    <t>Бефстроганов с жареным картофелем и грибами</t>
+  </si>
+  <si>
+    <t>0000002878</t>
+  </si>
+  <si>
+    <t>SWEETBOX чиа-манго</t>
   </si>
 </sst>
 </file>
@@ -380,7 +416,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="E1" sqref="E1"/>
@@ -407,10 +443,104 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>47323424</v>
-      </c>
-      <c r="B2">
-        <v>47323424</v>
+        <v>357469</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>357470</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>357471</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>357473</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>357477</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>357478</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
